--- a/ukb_lbp_wbc.xlsx
+++ b/ukb_lbp_wbc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Desktop\UKB_LBP_neutro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55878EFE-2959-40CF-801B-C8FD897ADD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0038523E-B4C6-4015-A7C6-48803732D1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4C0A0EF-E14F-42C4-A204-956153F1A205}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -483,49 +483,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,56 +889,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB3A9DA-2C45-40D6-83BF-A44D2B61F45F}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="8.88671875" style="3"/>
-    <col min="10" max="10" width="8.88671875" style="2"/>
-    <col min="11" max="11" width="8.88671875" style="3"/>
-    <col min="12" max="12" width="8.88671875" style="2"/>
-    <col min="13" max="13" width="8.88671875" style="3"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="30"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
@@ -1571,46 +1578,46 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="29" t="s">
+      <c r="I21" s="43"/>
+      <c r="J21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="29" t="s">
+      <c r="K21" s="41"/>
+      <c r="L21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
@@ -2292,30 +2299,30 @@
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="29" t="s">
+      <c r="E42" s="41"/>
+      <c r="F42" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="29" t="s">
+      <c r="G42" s="41"/>
+      <c r="H42" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="29" t="s">
+      <c r="I42" s="41"/>
+      <c r="J42" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="29" t="s">
+      <c r="K42" s="41"/>
+      <c r="L42" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="30"/>
+      <c r="M42" s="41"/>
     </row>
     <row r="43" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
@@ -2561,7 +2568,7 @@
         <v>0.75934999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2609,7 @@
         <v>0.47045999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>22</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>0.63019999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>0.71218999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>9</v>
       </c>
@@ -2705,7 +2712,7 @@
       <c r="L52" s="27"/>
       <c r="M52" s="28"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>10</v>
       </c>
@@ -2726,7 +2733,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2754,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>12</v>
       </c>
@@ -2768,7 +2775,7 @@
       <c r="L55" s="27"/>
       <c r="M55" s="28"/>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>13</v>
       </c>
@@ -2789,28 +2796,28 @@
         <v>0.49013000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="33"/>
-      <c r="B58" s="29" t="s">
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="29"/>
+      <c r="B58" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="29" t="s">
+      <c r="C58" s="41"/>
+      <c r="D58" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="29" t="s">
+      <c r="E58" s="41"/>
+      <c r="F58" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G58" s="30"/>
-      <c r="H58" s="29" t="s">
+      <c r="G58" s="41"/>
+      <c r="H58" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
+      <c r="I58" s="41"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
       <c r="B59" s="19" t="s">
         <v>0</v>
       </c>
@@ -2823,21 +2830,21 @@
       <c r="E59" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="40" t="s">
+      <c r="H59" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I59" s="41" t="s">
+      <c r="I59" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="35" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="20">
@@ -2865,8 +2872,8 @@
         <v>1.214E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="20">
@@ -2893,9 +2900,11 @@
       <c r="I61" s="12">
         <v>0.5661081</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
+      <c r="M61" s="44"/>
+      <c r="N61" s="45"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="20">
@@ -2922,9 +2931,11 @@
       <c r="I62" s="12">
         <v>0.2321965</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+      <c r="M62" s="44"/>
+      <c r="N62" s="45"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="20">
@@ -2951,9 +2962,11 @@
       <c r="I63" s="12">
         <v>0.70349209999999995</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="M63" s="44"/>
+      <c r="N63" s="45"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="20">
@@ -2980,9 +2993,11 @@
       <c r="I64" s="12">
         <v>0.88767149999999995</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
+      <c r="M64" s="44"/>
+      <c r="N64" s="45"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="20">
@@ -3009,9 +3024,11 @@
       <c r="I65" s="12">
         <v>0.55462040000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="35" t="s">
+      <c r="M65" s="44"/>
+      <c r="N65" s="45"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B66" s="20">
@@ -3038,15 +3055,17 @@
       <c r="I66" s="12">
         <v>0.69709690000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
+      <c r="M66" s="44"/>
+      <c r="N66" s="45"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="20">
         <v>1.68207</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="33">
         <v>1.5300000000000001E-4</v>
       </c>
       <c r="D67" s="10">
@@ -3059,24 +3078,28 @@
       <c r="G67" s="12"/>
       <c r="H67" s="20"/>
       <c r="I67" s="12"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="35" t="s">
+      <c r="M67" s="44"/>
+      <c r="N67" s="45"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="20">
         <v>0.98</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="33">
         <v>2.5034000000000001E-2</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="12"/>
       <c r="H68" s="20"/>
       <c r="I68" s="12"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="M68" s="44"/>
+      <c r="N68" s="45"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="9"/>
@@ -3091,9 +3114,11 @@
       <c r="G69" s="12"/>
       <c r="H69" s="20"/>
       <c r="I69" s="12"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="35" t="s">
+      <c r="M69" s="44"/>
+      <c r="N69" s="45"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B70" s="9"/>
@@ -3108,9 +3133,11 @@
       </c>
       <c r="H70" s="20"/>
       <c r="I70" s="12"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
+      <c r="M70" s="44"/>
+      <c r="N70" s="45"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B71" s="9"/>
@@ -3125,26 +3152,30 @@
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="12"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="35" t="s">
+      <c r="M71" s="44"/>
+      <c r="N71" s="45"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="28"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="39"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="35"/>
       <c r="H72" s="20">
         <v>1.016005</v>
       </c>
       <c r="I72" s="14">
         <v>4.7982200000000003E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="36" t="s">
+      <c r="M72" s="44"/>
+      <c r="N72" s="45"/>
+    </row>
+    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B73" s="21"/>
@@ -3153,15 +3184,60 @@
       <c r="E73" s="17"/>
       <c r="F73" s="21"/>
       <c r="G73" s="18"/>
-      <c r="H73" s="42">
+      <c r="H73" s="38">
         <v>1.031706</v>
       </c>
-      <c r="I73" s="43">
+      <c r="I73" s="39">
         <v>3.5859999999999999E-4</v>
       </c>
+      <c r="M73" s="44"/>
+      <c r="N73" s="45"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M74" s="44"/>
+      <c r="N74" s="45"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M75" s="44"/>
+      <c r="N75" s="45"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M76" s="44"/>
+      <c r="N76" s="45"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M77" s="44"/>
+      <c r="N77" s="45"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M78" s="44"/>
+      <c r="N78" s="45"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M79" s="44"/>
+      <c r="N79" s="45"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M80" s="44"/>
+      <c r="N80" s="45"/>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M81" s="44"/>
+      <c r="N81" s="45"/>
+    </row>
+    <row r="82" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M82" s="44"/>
+      <c r="N82" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="F58:G58"/>
@@ -3178,13 +3254,6 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:B19 D2:D19 F2:F19 H2:H19 J2:J19 L2:L19 L22:L41 J22:J41 H22:H41 F22:F41 D22:D41 B22:B41 F44:F51 H44:H51 B56:B57 D44:D57 F53:F57 H53:H57 J44:J51 J53 J55:J1048576 L44:L54 L56:L1048576 B74:B1048576 F74:F1048576 D60:D67 D69:D1048576 F60:F66 F70:F71 H60:H66 H69:H1048576">
